--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1481.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1481.xlsx
@@ -354,7 +354,7 @@
         <v>2.667766847705494</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.24633265335928</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1481.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1481.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.589952602539155</v>
+        <v>15</v>
       </c>
       <c r="B1">
-        <v>2.667766847705494</v>
+        <v>2.880195140838623</v>
       </c>
       <c r="C1">
+        <v>2.593844652175903</v>
+      </c>
+      <c r="D1">
+        <v>2.899602890014648</v>
+      </c>
+      <c r="E1">
         <v>15</v>
-      </c>
-      <c r="D1">
-        <v>1.24633265335928</v>
-      </c>
-      <c r="E1">
-        <v>0.5458419363175923</v>
       </c>
     </row>
   </sheetData>
